--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Round.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Round.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\home\user-workspace\DEFAULT\Round\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67778C44-0BA8-4BC2-8813-EDE372137622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="13290"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="round(value)" sheetId="1" r:id="rId1"/>
     <sheet name="round(value, prec)" sheetId="2" r:id="rId2"/>
     <sheet name="round(value, prec, mode)" sheetId="3" r:id="rId3"/>
     <sheet name="EPBDS Issues" sheetId="4" r:id="rId4"/>
+    <sheet name="Env" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="300">
   <si>
     <t>Rate</t>
   </si>
@@ -731,16 +738,203 @@
   </si>
   <si>
     <t>SimpleRules Float roundFromFloatToFractional3 (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Double roundFromDoubleToROUND_CEILINGRoundingMode (Double value)</t>
+  </si>
+  <si>
+    <t>=round(value,2,RoundingMode.CEILING)</t>
+  </si>
+  <si>
+    <t>Test roundFromBigDecimalToROUND_CEILING roundFromBigDecimalToROUND_CEILINGRoundingModeTest</t>
+  </si>
+  <si>
+    <t>Test roundFromDoubleToROUND_CEILINGRoundingMode roundFromDoubleToROUND_CEILINGRoundingModeTest</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>java.math.RoundingMode.*;</t>
+  </si>
+  <si>
+    <t>=round(value,2,CEILING)</t>
+  </si>
+  <si>
+    <t>=round(value,2,java.math.RoundingMode.CEILING)</t>
+  </si>
+  <si>
+    <t>static java.math.RoundingMode.*;</t>
+  </si>
+  <si>
+    <t>import static</t>
+  </si>
+  <si>
+    <t>import*</t>
+  </si>
+  <si>
+    <t>SimpleRules DoubleValue roundFromDoubleValueToROUND_CEILINGRoundingMode (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Test roundFromDoubleValueToROUND_CEILING roundFromDoubleValueToROUND_CEILINGTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromDoubleValueToROUND_CEILINGRoundingMode roundFromDoubleValueToROUND_CEILINGTestRoundingMode</t>
+  </si>
+  <si>
+    <t>SimpleRules BigDecimal roundFromBigDecimalToROUND_CEILINGRoundingMode (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>Test roundFromBigDecimalToROUND_CEILING roundFromBigDecimalToROUND_CEILINGRoundingModeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromBigDecimalToROUND_CEILINGRoundingMode roundFromBigDecimalToROUND_CEILINGRoundingModeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>java.math.RoundingMode.*</t>
+  </si>
+  <si>
+    <t>java.math.RoundingMode</t>
+  </si>
+  <si>
+    <t>=round(value,2,CEILIN2G)</t>
+  </si>
+  <si>
+    <t>importasd</t>
+  </si>
+  <si>
+    <t>SimpleRules BigDecimal roundFromBigDecimalToRoundingMode (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>=round(value,0,CEILING)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigDecimal roundFromBigDecimalRoundingMode (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>=round(value,CEILING)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigDecimal roundFromBigDecimalRoundingMode (java.math.BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigDecimal roundFromBigDecimalRoundingMode (BigDecimalValue value)</t>
+  </si>
+  <si>
+    <t>Test roundFromBigDecimal roundFromBigDecimalToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromBigDecimalRoundingMode roundFromBigDecimalToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>=round(value,UP)</t>
+  </si>
+  <si>
+    <t>=round(value,HALF_UP)</t>
+  </si>
+  <si>
+    <t>SimpleRules double roundFromdoubleRoundingMode (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules double roundFromDoubleRoundingMode (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules DoubleValue roundFromDoubleValueRoundingMode (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>=round(value, HALF_UP)</t>
+  </si>
+  <si>
+    <t>Test roundFromDoubleValue roundFromDoubleValueToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromDoubleValueRoundingMode roundFromDoubleValueToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromDouble roundFromDoubleToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromDoubleRoundingMode roundFromDoubleToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>SimpleRules Float roundFromFloatToROUND_CEILINGRoundingMode (Float value)</t>
+  </si>
+  <si>
+    <t>Test roundFromFloatToROUND_CEILING roundFromFloatToROUND_CEILINGTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromFloatToROUND_CEILINGRoundingMode roundFromFloatToROUND_CEILINGTestRoundingMode</t>
+  </si>
+  <si>
+    <t>SimpleRules Float roundFromFloatRoundingMode (Float value)</t>
+  </si>
+  <si>
+    <t>Test roundFromFloat roundFromFloatToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromFloatRoundingMode roundFromFloatToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>SimpleRules double roundFromDoubleRoundingMode (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules double roundFromDoubleRoundingMode (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Double roundFromDoubleRoundingMode (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules double roundRoundingModedouble (double value)</t>
+  </si>
+  <si>
+    <t>Test roundFromdouble rounddoubleToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundFromdoubleRoundingMode rounddoubleToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test rounddoubleRoundingMode rounddoubleToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundeRoundingModedoubl rounddoubleToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundeRoundingModedouble rounddoubleToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundRoundingModedouble rounddoubleToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>SimpleRules float roundfloatRoundingMode (float value)</t>
+  </si>
+  <si>
+    <t>Test roundFromfloat roundfloatToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>Test roundfloatRoundingMode roundfloatToWholeTestRoundingMode</t>
+  </si>
+  <si>
+    <t>SimpleRules float roundfloatToROUND_CEILINGRoundingMode (float value)</t>
+  </si>
+  <si>
+    <t>Test roundfloatToROUND_CEILINGRoundingMode roundFromfloatToROUND_CEILINGTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -762,7 +956,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -785,12 +979,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -817,6 +1071,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -829,10 +1085,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -840,14 +1102,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -885,9 +1150,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,9 +1185,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,9 +1237,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1130,66 +1429,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:X24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:X264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:D58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="38.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="38.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="9" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="38.7109375" style="9" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" customWidth="1"/>
-    <col min="23" max="23" width="35.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="9" width="26.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="38.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="9" width="16.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="9" width="26.44140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="9" width="38.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="9" width="16.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="4"/>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="4"/>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1532,7 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1261,7 +1562,7 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1275,7 +1576,7 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1289,7 +1590,7 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1303,39 +1604,39 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="N9" s="16" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="R9" s="16" t="s">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="R9" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="V9" s="16" t="s">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="V9" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1860,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +2028,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1783,7 +2084,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
@@ -1839,7 +2140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
@@ -1895,7 +2196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
@@ -1951,7 +2252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
@@ -2007,7 +2308,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>168</v>
       </c>
@@ -2063,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>169</v>
       </c>
@@ -2119,7 +2420,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
         <v>211</v>
       </c>
@@ -2141,86 +2442,2071 @@
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
     </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3">
+        <v>180</v>
+      </c>
+      <c r="D42" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="3">
+        <v>180</v>
+      </c>
+      <c r="D57" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="18"/>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65">
+      <c r="B65" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D68" t="s" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C69" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D69" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D75" t="s" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C76" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D76" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s" s="15">
+        <v>168</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="18"/>
+    </row>
+    <row r="80">
+      <c r="B80" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="15"/>
+      <c r="C81" t="s" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s" s="15">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D87" t="s" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="C88" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D92" t="s" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="C94" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s" s="15">
+        <v>45</v>
+      </c>
+      <c r="C95" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D95" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s" s="15">
+        <v>168</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99">
+      <c r="B99" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="15"/>
+      <c r="C100" t="s" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+    </row>
+    <row r="103">
+      <c r="B103" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s" s="15">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D105" t="n" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D106" t="n" s="3">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="C107" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D107" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D108" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D109" t="n" s="7">
+        <v>361.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D110" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D111" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D112" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="C113" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s" s="15">
+        <v>45</v>
+      </c>
+      <c r="C114" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D114" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s" s="15">
+        <v>168</v>
+      </c>
+      <c r="C115" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="D115" t="n" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s" s="15">
+        <v>169</v>
+      </c>
+      <c r="C116" t="s" s="12">
+        <v>171</v>
+      </c>
+      <c r="D116" t="s" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s" s="15">
+        <v>211</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+    </row>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="123">
+      <c r="B123" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="18"/>
+    </row>
+    <row r="124">
+      <c r="B124" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+    </row>
+    <row r="128">
+      <c r="B128" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D130" t="n" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D131" t="n" s="3">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C132" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D132" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D133" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D134" t="n" s="7">
+        <v>361.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D135" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D136" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C137" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D137" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C138" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D138" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C139" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D139" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="C140" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="D140" t="n" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="C141" t="s" s="12">
+        <v>171</v>
+      </c>
+      <c r="D141" t="s" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s" s="15">
+        <v>211</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+    </row>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="161">
+      <c r="B161" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C161" s="18"/>
+    </row>
+    <row r="162">
+      <c r="B162" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="10"/>
+      <c r="C163" t="s" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+    </row>
+    <row r="166">
+      <c r="B166" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D169" t="s" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C170" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D170" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D172" t="s" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D173" t="s" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D174" t="s" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C175" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D175" t="s" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C176" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D176" t="s" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C177" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D177" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="s" s="15">
+        <v>168</v>
+      </c>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C180" s="18"/>
+    </row>
+    <row r="181">
+      <c r="B181" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="10"/>
+      <c r="C182" t="s" s="10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+    </row>
+    <row r="185">
+      <c r="B185" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="C185" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D187" t="n" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D188" t="n" s="3">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C189" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D189" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D190" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D191" t="n" s="7">
+        <v>361.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D192" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D193" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C194" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D194" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C195" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D195" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C196" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D196" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="C197" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="D197" t="n" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="C198" t="s" s="12">
+        <v>171</v>
+      </c>
+      <c r="D198" t="s" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C199" s="12"/>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C201" s="18"/>
+    </row>
+    <row r="202">
+      <c r="B202" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="10"/>
+      <c r="C203" t="s" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C205" s="18"/>
+      <c r="D205" s="18"/>
+    </row>
+    <row r="206">
+      <c r="B206" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D208" t="n" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D209" t="n" s="3">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C210" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D210" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D211" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D212" t="n" s="7">
+        <v>361.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D213" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C214" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D214" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C215" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D215" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C216" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D216" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C217" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D217" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="C218" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="D218" t="n" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="C219" t="s" s="12">
+        <v>171</v>
+      </c>
+      <c r="D219" t="s" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="s" s="15">
+        <v>211</v>
+      </c>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C222" s="18"/>
+    </row>
+    <row r="223">
+      <c r="B223" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C223" t="s" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" s="10"/>
+      <c r="C224" t="s" s="10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C226" s="18"/>
+      <c r="D226" s="18"/>
+    </row>
+    <row r="227">
+      <c r="B227" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D227" t="s" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D229" t="n" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D230" t="n" s="3">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C231" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D231" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D232" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D233" t="n" s="7">
+        <v>361.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D234" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C235" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D235" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C236" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D236" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C237" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D237" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C238" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D238" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="C239" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="D239" t="n" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="C240" t="s" s="12">
+        <v>171</v>
+      </c>
+      <c r="D240" t="s" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C242" s="18"/>
+    </row>
+    <row r="243">
+      <c r="B243" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C243" t="s" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="10"/>
+      <c r="C244" t="s" s="10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C246" s="18"/>
+      <c r="D246" s="18"/>
+    </row>
+    <row r="247">
+      <c r="B247" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D247" t="s" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="D248" t="s" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D249" t="n" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D250" t="n" s="3">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C251" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D251" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C252" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D252" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D253" t="n" s="7">
+        <v>361.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C254" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D254" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C255" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D255" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C256" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D256" t="n" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C257" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D257" t="s" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C258" t="n" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="D258" t="n" s="3">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="C259" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="D259" t="n" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="C260" t="s" s="12">
+        <v>171</v>
+      </c>
+      <c r="D260" t="s" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C262" s="18"/>
+    </row>
+    <row r="263">
+      <c r="B263" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C263" t="s" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="10"/>
+      <c r="C264" t="s" s="5">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="34">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B262:C262"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:X78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="43.85546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="43.85546875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="43.85546875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="25" style="9" customWidth="1"/>
-    <col min="23" max="23" width="47.42578125" style="9" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="61.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="9" width="20.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="43.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="17.5546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="9" width="20.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="43.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="9" width="17.5546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="9" width="20.44140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="9" width="43.88671875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="9" width="17.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="9" width="25.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="9" width="47.44140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="9" width="17.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="4"/>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="4"/>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2260,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -2288,7 +4574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2296,7 +4582,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2304,7 +4590,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2312,39 +4598,39 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="N9" s="16" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="R9" s="16" t="s">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="R9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="V9" s="16" t="s">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="V9" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2400,7 +4686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +4742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2512,7 +4798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +4854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
@@ -2624,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
@@ -2680,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +5022,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +5078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
@@ -2848,7 +5134,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
@@ -2904,7 +5190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
@@ -2960,7 +5246,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
@@ -3016,7 +5302,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>168</v>
       </c>
@@ -3040,7 +5326,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
     </row>
-    <row r="23" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="F23" s="8"/>
       <c r="J23" s="8"/>
@@ -3048,59 +5334,59 @@
       <c r="R23" s="8"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="4"/>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="4"/>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="16"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="16"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="4"/>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="S28" s="16"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="4"/>
-      <c r="V28" s="16" t="s">
+      <c r="V28" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="W28" s="16"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
@@ -3140,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="5" t="s">
         <v>22</v>
@@ -3168,7 +5454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3176,7 +5462,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3184,7 +5470,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3192,39 +5478,39 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="F34" s="16" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="F34" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="J34" s="16" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="J34" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="N34" s="16" t="s">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="N34" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="R34" s="16" t="s">
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="R34" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="V34" s="16" t="s">
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="V34" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -3280,7 +5566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
@@ -3336,7 +5622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +5678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>9</v>
       </c>
@@ -3448,7 +5734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -3560,7 +5846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +5902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>13</v>
       </c>
@@ -3672,7 +5958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
@@ -3728,7 +6014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>36</v>
       </c>
@@ -3784,7 +6070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>37</v>
       </c>
@@ -3840,7 +6126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
@@ -3896,7 +6182,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
         <v>168</v>
       </c>
@@ -3918,64 +6204,64 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="16"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="4"/>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="16"/>
+      <c r="G53" s="18"/>
       <c r="H53" s="4"/>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K53" s="16"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="4"/>
-      <c r="N53" s="16" t="s">
+      <c r="N53" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="O53" s="16"/>
+      <c r="O53" s="18"/>
       <c r="P53" s="4"/>
-      <c r="R53" s="16" t="s">
+      <c r="R53" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="S53" s="16"/>
+      <c r="S53" s="18"/>
       <c r="T53" s="4"/>
-      <c r="V53" s="16" t="s">
+      <c r="V53" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="W53" s="16"/>
+      <c r="W53" s="18"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
@@ -4015,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="5" t="s">
         <v>21</v>
@@ -4043,7 +6329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4051,7 +6337,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4059,7 +6345,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4067,39 +6353,39 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="F59" s="16" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="J59" s="16" t="s">
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="J59" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="N59" s="16" t="s">
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="N59" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="R59" s="16" t="s">
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="R59" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="V59" s="16" t="s">
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="V59" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>2</v>
       </c>
@@ -4155,7 +6441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -4211,7 +6497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>7</v>
       </c>
@@ -4267,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>9</v>
       </c>
@@ -4323,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>10</v>
       </c>
@@ -4379,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>11</v>
       </c>
@@ -4435,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>12</v>
       </c>
@@ -4491,7 +6777,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>13</v>
       </c>
@@ -4547,7 +6833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
@@ -4603,7 +6889,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>36</v>
       </c>
@@ -4659,7 +6945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>37</v>
       </c>
@@ -4715,7 +7001,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="71" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>45</v>
       </c>
@@ -4771,7 +7057,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="15" t="s">
         <v>168</v>
       </c>
@@ -4799,32 +7085,32 @@
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -4873,66 +7159,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:X191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="51.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="51.7109375" style="9" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" style="9" customWidth="1"/>
-    <col min="22" max="22" width="25.42578125" style="9" customWidth="1"/>
-    <col min="23" max="23" width="61.42578125" style="9" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="20.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="51.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="17.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="9" width="20.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="51.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="17.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="9" width="20.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="51.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="9" width="17.88671875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="9" width="20.44140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="9" width="51.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="9" width="17.88671875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="9" width="25.44140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="9" width="61.44140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="9" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="4"/>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="4"/>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4971,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -4998,54 +7284,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="N9" s="16" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="R9" s="16" t="s">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="R9" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="V9" s="16" t="s">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="V9" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -5101,7 +7387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +7443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
@@ -5213,7 +7499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -5269,7 +7555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
@@ -5325,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
@@ -5381,7 +7667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
@@ -5437,7 +7723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -5493,7 +7779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
@@ -5549,7 +7835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
@@ -5605,7 +7891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
@@ -5661,7 +7947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
@@ -5717,7 +8003,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>168</v>
       </c>
@@ -5739,39 +8025,39 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="4"/>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="4"/>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="16"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="O28" s="16"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="4"/>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="S28" s="16"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="4"/>
-      <c r="V28" s="16" t="s">
+      <c r="V28" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="W28" s="16"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
@@ -5810,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="5" t="s">
         <v>28</v>
@@ -5837,54 +8123,54 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="F34" s="16" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="F34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="J34" s="16" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="J34" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="N34" s="16" t="s">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="N34" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="R34" s="16" t="s">
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="R34" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="V34" s="16" t="s">
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="V34" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -5940,7 +8226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
@@ -5996,7 +8282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +8338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>9</v>
       </c>
@@ -6108,7 +8394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>10</v>
       </c>
@@ -6164,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -6220,7 +8506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>12</v>
       </c>
@@ -6276,7 +8562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>13</v>
       </c>
@@ -6332,7 +8618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
@@ -6388,7 +8674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>36</v>
       </c>
@@ -6444,7 +8730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>37</v>
       </c>
@@ -6500,7 +8786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
@@ -6556,7 +8842,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
         <v>168</v>
       </c>
@@ -6578,39 +8864,39 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="16"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="4"/>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G53" s="16"/>
+      <c r="G53" s="18"/>
       <c r="H53" s="4"/>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="K53" s="16"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="4"/>
-      <c r="N53" s="16" t="s">
+      <c r="N53" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="O53" s="16"/>
+      <c r="O53" s="18"/>
       <c r="P53" s="4"/>
-      <c r="R53" s="16" t="s">
+      <c r="R53" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="S53" s="16"/>
+      <c r="S53" s="18"/>
       <c r="T53" s="4"/>
-      <c r="V53" s="16" t="s">
+      <c r="V53" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="W53" s="16"/>
+      <c r="W53" s="18"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
@@ -6649,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="5" t="s">
         <v>31</v>
@@ -6676,54 +8962,54 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="F59" s="16" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="J59" s="16" t="s">
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="J59" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="N59" s="16" t="s">
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="N59" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="R59" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="V59" s="16" t="s">
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="R59" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="V59" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>2</v>
       </c>
@@ -6779,7 +9065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -6835,7 +9121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>7</v>
       </c>
@@ -6891,7 +9177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>9</v>
       </c>
@@ -6947,7 +9233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>10</v>
       </c>
@@ -7003,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>11</v>
       </c>
@@ -7059,7 +9345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>12</v>
       </c>
@@ -7115,7 +9401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>13</v>
       </c>
@@ -7171,7 +9457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
@@ -7227,7 +9513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>36</v>
       </c>
@@ -7283,7 +9569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>37</v>
       </c>
@@ -7339,7 +9625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>45</v>
       </c>
@@ -7395,7 +9681,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B72" s="15" t="s">
         <v>168</v>
       </c>
@@ -7417,39 +9703,39 @@
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B78" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="16"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="4"/>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G78" s="16"/>
+      <c r="G78" s="18"/>
       <c r="H78" s="4"/>
-      <c r="J78" s="16" t="s">
+      <c r="J78" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="K78" s="16"/>
+      <c r="K78" s="18"/>
       <c r="L78" s="4"/>
-      <c r="N78" s="16" t="s">
+      <c r="N78" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="O78" s="16"/>
+      <c r="O78" s="18"/>
       <c r="P78" s="4"/>
-      <c r="R78" s="16" t="s">
+      <c r="R78" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="S78" s="16"/>
+      <c r="S78" s="18"/>
       <c r="T78" s="4"/>
-      <c r="V78" s="16" t="s">
+      <c r="V78" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="W78" s="16"/>
+      <c r="W78" s="18"/>
       <c r="X78" s="4"/>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>15</v>
       </c>
@@ -7488,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B80" s="10"/>
       <c r="C80" s="5" t="s">
         <v>40</v>
@@ -7515,54 +9801,54 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="16" t="s">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B84" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="F84" s="16" t="s">
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="F84" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="J84" s="16" t="s">
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="J84" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="N84" s="16" t="s">
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="N84" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="R84" s="16" t="s">
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="R84" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="V84" s="16" t="s">
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="V84" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
-    </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>2</v>
       </c>
@@ -7618,7 +9904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>4</v>
       </c>
@@ -7674,7 +9960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>7</v>
       </c>
@@ -7730,7 +10016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>9</v>
       </c>
@@ -7786,7 +10072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>10</v>
       </c>
@@ -7842,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>11</v>
       </c>
@@ -7898,7 +10184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>12</v>
       </c>
@@ -7954,7 +10240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>13</v>
       </c>
@@ -8010,7 +10296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>14</v>
       </c>
@@ -8066,7 +10352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>36</v>
       </c>
@@ -8122,7 +10408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>37</v>
       </c>
@@ -8178,7 +10464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>45</v>
       </c>
@@ -8234,7 +10520,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B97" s="15" t="s">
         <v>168</v>
       </c>
@@ -8256,39 +10542,39 @@
       <c r="W97" s="15"/>
       <c r="X97" s="15"/>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B102" s="16" t="s">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B102" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="16"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="4"/>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G102" s="16"/>
+      <c r="G102" s="18"/>
       <c r="H102" s="4"/>
-      <c r="J102" s="16" t="s">
+      <c r="J102" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="K102" s="16"/>
+      <c r="K102" s="18"/>
       <c r="L102" s="4"/>
-      <c r="N102" s="16" t="s">
+      <c r="N102" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="O102" s="16"/>
+      <c r="O102" s="18"/>
       <c r="P102" s="4"/>
-      <c r="R102" s="16" t="s">
+      <c r="R102" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="S102" s="16"/>
+      <c r="S102" s="18"/>
       <c r="T102" s="4"/>
-      <c r="V102" s="16" t="s">
+      <c r="V102" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="W102" s="16"/>
+      <c r="W102" s="18"/>
       <c r="X102" s="4"/>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>15</v>
       </c>
@@ -8327,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B104" s="10"/>
       <c r="C104" s="5" t="s">
         <v>41</v>
@@ -8354,54 +10640,54 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B108" s="16" t="s">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B108" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="F108" s="16" t="s">
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="F108" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="J108" s="16" t="s">
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="J108" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
-      <c r="N108" s="16" t="s">
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="N108" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
-      <c r="R108" s="16" t="s">
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="R108" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="S108" s="16"/>
-      <c r="T108" s="16"/>
-      <c r="V108" s="16" t="s">
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="V108" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="W108" s="16"/>
-      <c r="X108" s="16"/>
-    </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W108" s="18"/>
+      <c r="X108" s="18"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>2</v>
       </c>
@@ -8457,7 +10743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>4</v>
       </c>
@@ -8513,7 +10799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>7</v>
       </c>
@@ -8569,7 +10855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>9</v>
       </c>
@@ -8625,7 +10911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>10</v>
       </c>
@@ -8681,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>11</v>
       </c>
@@ -8737,7 +11023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>12</v>
       </c>
@@ -8793,7 +11079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>13</v>
       </c>
@@ -8849,7 +11135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>14</v>
       </c>
@@ -8905,7 +11191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>36</v>
       </c>
@@ -8961,7 +11247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>37</v>
       </c>
@@ -9017,7 +11303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>45</v>
       </c>
@@ -9073,7 +11359,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B121" s="15" t="s">
         <v>168</v>
       </c>
@@ -9095,39 +11381,39 @@
       <c r="W121" s="15"/>
       <c r="X121" s="15"/>
     </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B127" s="16" t="s">
+    <row r="127" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B127" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C127" s="16"/>
+      <c r="C127" s="18"/>
       <c r="D127" s="4"/>
-      <c r="F127" s="16" t="s">
+      <c r="F127" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G127" s="16"/>
+      <c r="G127" s="18"/>
       <c r="H127" s="4"/>
-      <c r="J127" s="16" t="s">
+      <c r="J127" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="K127" s="16"/>
+      <c r="K127" s="18"/>
       <c r="L127" s="4"/>
-      <c r="N127" s="16" t="s">
+      <c r="N127" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O127" s="16"/>
+      <c r="O127" s="18"/>
       <c r="P127" s="4"/>
-      <c r="R127" s="16" t="s">
+      <c r="R127" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="S127" s="16"/>
+      <c r="S127" s="18"/>
       <c r="T127" s="4"/>
-      <c r="V127" s="16" t="s">
+      <c r="V127" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="W127" s="16"/>
+      <c r="W127" s="18"/>
       <c r="X127" s="4"/>
     </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>15</v>
       </c>
@@ -9166,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B129" s="10"/>
       <c r="C129" s="5" t="s">
         <v>42</v>
@@ -9193,54 +11479,54 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B133" s="16" t="s">
+    <row r="133" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B133" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="F133" s="16" t="s">
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="F133" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="J133" s="16" t="s">
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="J133" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
-      <c r="N133" s="16" t="s">
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="N133" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="O133" s="16"/>
-      <c r="P133" s="16"/>
-      <c r="R133" s="16" t="s">
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="R133" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="S133" s="16"/>
-      <c r="T133" s="16"/>
-      <c r="V133" s="16" t="s">
+      <c r="S133" s="18"/>
+      <c r="T133" s="18"/>
+      <c r="V133" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="W133" s="16"/>
-      <c r="X133" s="16"/>
-    </row>
-    <row r="134" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W133" s="18"/>
+      <c r="X133" s="18"/>
+    </row>
+    <row r="134" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>2</v>
       </c>
@@ -9296,7 +11582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>4</v>
       </c>
@@ -9352,7 +11638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>7</v>
       </c>
@@ -9408,7 +11694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>9</v>
       </c>
@@ -9464,7 +11750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>10</v>
       </c>
@@ -9520,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>11</v>
       </c>
@@ -9576,7 +11862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>12</v>
       </c>
@@ -9632,7 +11918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>13</v>
       </c>
@@ -9688,7 +11974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>14</v>
       </c>
@@ -9744,7 +12030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>36</v>
       </c>
@@ -9800,7 +12086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>37</v>
       </c>
@@ -9856,7 +12142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>45</v>
       </c>
@@ -9912,7 +12198,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B146" s="15" t="s">
         <v>168</v>
       </c>
@@ -9934,39 +12220,39 @@
       <c r="W146" s="15"/>
       <c r="X146" s="15"/>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B152" s="16" t="s">
+    <row r="152" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B152" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C152" s="16"/>
+      <c r="C152" s="18"/>
       <c r="D152" s="4"/>
-      <c r="F152" s="16" t="s">
+      <c r="F152" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G152" s="16"/>
+      <c r="G152" s="18"/>
       <c r="H152" s="4"/>
-      <c r="J152" s="16" t="s">
+      <c r="J152" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K152" s="16"/>
+      <c r="K152" s="18"/>
       <c r="L152" s="4"/>
-      <c r="N152" s="16" t="s">
+      <c r="N152" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="O152" s="16"/>
+      <c r="O152" s="18"/>
       <c r="P152" s="4"/>
-      <c r="R152" s="16" t="s">
+      <c r="R152" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="S152" s="16"/>
+      <c r="S152" s="18"/>
       <c r="T152" s="4"/>
-      <c r="V152" s="16" t="s">
+      <c r="V152" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="W152" s="16"/>
+      <c r="W152" s="18"/>
       <c r="X152" s="4"/>
     </row>
-    <row r="153" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>15</v>
       </c>
@@ -10005,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B154" s="10"/>
       <c r="C154" s="5" t="s">
         <v>47</v>
@@ -10032,54 +12318,54 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B158" s="16" t="s">
+    <row r="158" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B158" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="F158" s="16" t="s">
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="F158" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
-      <c r="J158" s="16" t="s">
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="J158" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K158" s="16"/>
-      <c r="L158" s="16"/>
-      <c r="N158" s="16" t="s">
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="N158" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="O158" s="16"/>
-      <c r="P158" s="16"/>
-      <c r="R158" s="16" t="s">
+      <c r="O158" s="18"/>
+      <c r="P158" s="18"/>
+      <c r="R158" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="S158" s="16"/>
-      <c r="T158" s="16"/>
-      <c r="V158" s="16" t="s">
+      <c r="S158" s="18"/>
+      <c r="T158" s="18"/>
+      <c r="V158" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="W158" s="16"/>
-      <c r="X158" s="16"/>
-    </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W158" s="18"/>
+      <c r="X158" s="18"/>
+    </row>
+    <row r="159" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>2</v>
       </c>
@@ -10135,7 +12421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>4</v>
       </c>
@@ -10191,7 +12477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>7</v>
       </c>
@@ -10247,7 +12533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>9</v>
       </c>
@@ -10303,7 +12589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>10</v>
       </c>
@@ -10359,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>11</v>
       </c>
@@ -10415,7 +12701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>12</v>
       </c>
@@ -10471,7 +12757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>13</v>
       </c>
@@ -10527,7 +12813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>14</v>
       </c>
@@ -10583,7 +12869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>36</v>
       </c>
@@ -10639,7 +12925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>37</v>
       </c>
@@ -10695,7 +12981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>45</v>
       </c>
@@ -10751,7 +13037,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B171" s="15" t="s">
         <v>168</v>
       </c>
@@ -10773,39 +13059,39 @@
       <c r="W171" s="15"/>
       <c r="X171" s="15"/>
     </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B177" s="16" t="s">
+    <row r="177" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B177" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C177" s="16"/>
+      <c r="C177" s="18"/>
       <c r="D177" s="4"/>
-      <c r="F177" s="16" t="s">
+      <c r="F177" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G177" s="16"/>
+      <c r="G177" s="18"/>
       <c r="H177" s="4"/>
-      <c r="J177" s="16" t="s">
+      <c r="J177" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="K177" s="16"/>
+      <c r="K177" s="18"/>
       <c r="L177" s="4"/>
-      <c r="N177" s="16" t="s">
+      <c r="N177" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="O177" s="16"/>
+      <c r="O177" s="18"/>
       <c r="P177" s="4"/>
-      <c r="R177" s="16" t="s">
+      <c r="R177" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="S177" s="16"/>
+      <c r="S177" s="18"/>
       <c r="T177" s="4"/>
-      <c r="V177" s="16" t="s">
+      <c r="V177" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="W177" s="16"/>
+      <c r="W177" s="18"/>
       <c r="X177" s="4"/>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>15</v>
       </c>
@@ -10844,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B179" s="10"/>
       <c r="C179" s="5" t="s">
         <v>48</v>
@@ -10871,54 +13157,54 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B183" s="16" t="s">
+    <row r="183" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B183" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="F183" s="16" t="s">
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
+      <c r="F183" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G183" s="16"/>
-      <c r="H183" s="16"/>
-      <c r="J183" s="16" t="s">
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="J183" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="K183" s="16"/>
-      <c r="L183" s="16"/>
-      <c r="N183" s="16" t="s">
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="N183" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O183" s="16"/>
-      <c r="P183" s="16"/>
-      <c r="R183" s="16" t="s">
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="R183" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="S183" s="16"/>
-      <c r="T183" s="16"/>
-      <c r="V183" s="16" t="s">
+      <c r="S183" s="18"/>
+      <c r="T183" s="18"/>
+      <c r="V183" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="W183" s="16"/>
-      <c r="X183" s="16"/>
-    </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W183" s="18"/>
+      <c r="X183" s="18"/>
+    </row>
+    <row r="184" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>2</v>
       </c>
@@ -10974,7 +13260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>4</v>
       </c>
@@ -11030,7 +13316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>7</v>
       </c>
@@ -11086,7 +13372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>9</v>
       </c>
@@ -11142,7 +13428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>10</v>
       </c>
@@ -11198,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>11</v>
       </c>
@@ -11254,7 +13540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>12</v>
       </c>
@@ -11310,7 +13596,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B191" s="15" t="s">
         <v>13</v>
       </c>
@@ -11436,85 +13722,85 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="F4" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="F5" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F6" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F7" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="F8" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>174</v>
       </c>
@@ -11525,7 +13811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>176</v>
       </c>
@@ -11536,7 +13822,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>182</v>
       </c>
@@ -11546,14 +13832,14 @@
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>1</v>
       </c>
@@ -11576,7 +13862,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>186</v>
       </c>
@@ -11599,7 +13885,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>179</v>
       </c>
@@ -11622,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>189</v>
       </c>
@@ -11645,7 +13931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>66</v>
       </c>
@@ -11668,7 +13954,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F17" s="7" t="s">
         <v>205</v>
       </c>
@@ -11682,7 +13968,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F18" s="7" t="s">
         <v>206</v>
       </c>
@@ -11696,7 +13982,7 @@
         <v>-1000000000</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F19" s="7" t="s">
         <v>210</v>
       </c>
@@ -11718,4 +14004,41 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5629B50F-2346-41DA-93EA-91A97E00E6D0}">
+  <dimension ref="B6:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="28.21875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Round.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Round.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5451" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5517" uniqueCount="519">
   <si>
     <t>Rate</t>
   </si>
@@ -1405,6 +1405,195 @@
   </si>
   <si>
     <t>=round(value,UNNECESSARY)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalRoundingMode (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToFractional3 (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToROUND_CEILING_RM_DEF (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToROUND_DOWN_RM_DEF (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToROUND_FLOOR_RM_DEF (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToROUND_HALF_DOWN_RM_DEF (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToROUND_HALF_EVEN_RM_DEF (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToROUND_HALF_UP_RM_DEF (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToROUND_UNNECESSARY_RM_DEF (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimalToROUND_UP_RM_DEF (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules BigInteger roundFromBigDecimal (BigDecimal value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleRoundingMode (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleToROUND_CEILING_RM_DEF (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleToROUND_DOWN_RM_DEF (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleToROUND_FLOOR_RM_DEF (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleToROUND_HALF_DOWN_RM_DEF (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleToROUND_HALF_EVEN_RM_DEF (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleToROUND_HALF_UP_RM_DEF (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleToROUND_UNNECESSARY_RM_DEF (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleToROUND_UP_RM_DEF (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValueRoundingMode (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValueToROUND_CEILING_RM_DEF (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValueToROUND_DOWN_RM_DEF (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValueToROUND_FLOOR_RM_DEF (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValueToROUND_HALF_DOWN_RM_DEF (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer  roundFromDoubleValueToROUND_HALF_EVEN_RM_DEF (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValueToROUND_HALF_UP_RM_DEF (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValueToROUND_UNNECESSARY_RM_DEF (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValueToROUND_UP_RM_DEF (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDoubleValue (DoubleValue value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromDouble (Double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatRoundingMode (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatToROUND_CEILING_RM_DEF (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatToROUND_DOWN_RM_DEF (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatToROUND_FLOOR_RM_DEF (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatToROUND_HALF_DOWN_RM_DEF (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatToROUND_HALF_EVEN_RM_DEF (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatToROUND_HALF_UP_RM_DEF (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatToROUND_UNNECESSARY_RM_DEF (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloatToROUND_UP_RM_DEF (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules Integer roundFromFloat (Float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleRoundingMode (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleToROUND_CEILING_RM_DEF (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleToROUND_DOWN_RM_DEF (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleToROUND_FLOOR_RM_DEF (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleToROUND_HALF_DOWN_RM_DEF (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleToROUND_HALF_EVEN_RM_DEF (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleToROUND_HALF_UP_RM_DEF (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleToROUND_UNNECESSARY_RM_DEF (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromdoubleToROUND_UP_RM_DEF (double value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleRules double roundFromdouble (double value)int </t>
+  </si>
+  <si>
+    <t>SimpleRules int  roundFromdouble (double value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatRoundingMode (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToFractional (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToROUND_CEILING_RM_DEF (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToROUND_DOWN_RM_DEF (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToROUND_FLOOR_RM_DEF (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToROUND_HALF_DOWN_RM_DEF (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToROUND_HALF_EVEN_RM_DEF (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToROUND_HALF_UP_RM_DEF (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToROUND_UNNECESSARY_RM_DEF (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloatToROUND_UP_RM_DEF (float value)</t>
+  </si>
+  <si>
+    <t>SimpleRules int roundFromfloat (float value)</t>
   </si>
 </sst>
 </file>
@@ -1875,32 +2064,32 @@
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>50</v>
+        <v>485</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="F3" s="18" t="s">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="4"/>
       <c r="J3" s="18" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="4"/>
       <c r="N3" s="18" t="s">
-        <v>122</v>
+        <v>496</v>
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="4"/>
       <c r="R3" s="18" t="s">
-        <v>144</v>
+        <v>518</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="4"/>
       <c r="V3" s="18" t="s">
-        <v>212</v>
+        <v>466</v>
       </c>
       <c r="W3" s="18"/>
       <c r="X3" s="4"/>
@@ -2915,32 +3104,32 @@
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>244</v>
+        <v>476</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="F3" s="18" t="s">
-        <v>250</v>
+        <v>467</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="4"/>
       <c r="J3" s="18" t="s">
-        <v>243</v>
+        <v>497</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="4"/>
       <c r="N3" s="18" t="s">
-        <v>248</v>
+        <v>487</v>
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="4"/>
       <c r="R3" s="18" t="s">
-        <v>251</v>
+        <v>508</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="4"/>
       <c r="V3" s="18" t="s">
-        <v>238</v>
+        <v>456</v>
       </c>
       <c r="W3" s="18"/>
       <c r="X3" s="4"/>
@@ -19391,32 +19580,32 @@
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>356</v>
+        <v>484</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="F3" s="18" t="s">
-        <v>357</v>
+        <v>475</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="4"/>
       <c r="J3" s="18" t="s">
-        <v>388</v>
+        <v>505</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="4"/>
       <c r="N3" s="18" t="s">
-        <v>389</v>
+        <v>495</v>
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="4"/>
       <c r="R3" s="18" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="4"/>
       <c r="V3" s="18" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="W3" s="18"/>
       <c r="X3" s="4"/>
@@ -20227,32 +20416,32 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="4"/>
       <c r="F28" s="18" t="s">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="4"/>
       <c r="J28" s="18" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="4"/>
       <c r="N28" s="18" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="4"/>
       <c r="R28" s="18" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="S28" s="18"/>
       <c r="T28" s="4"/>
       <c r="V28" s="18" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="W28" s="18"/>
       <c r="X28" s="4"/>
@@ -21052,32 +21241,32 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B53" s="18" t="s">
-        <v>365</v>
+        <v>477</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="4"/>
       <c r="F53" s="18" t="s">
-        <v>364</v>
+        <v>468</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="4"/>
       <c r="J53" s="18" t="s">
-        <v>397</v>
+        <v>498</v>
       </c>
       <c r="K53" s="18"/>
       <c r="L53" s="4"/>
       <c r="N53" s="18" t="s">
-        <v>396</v>
+        <v>488</v>
       </c>
       <c r="O53" s="18"/>
       <c r="P53" s="4"/>
       <c r="R53" s="18" t="s">
-        <v>429</v>
+        <v>510</v>
       </c>
       <c r="S53" s="18"/>
       <c r="T53" s="4"/>
       <c r="V53" s="18" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="W53" s="18"/>
       <c r="X53" s="4"/>
@@ -21764,32 +21953,32 @@
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="4"/>
       <c r="F78" s="18" t="s">
-        <v>369</v>
+        <v>470</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="4"/>
       <c r="J78" s="18" t="s">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="K78" s="18"/>
       <c r="L78" s="4"/>
       <c r="N78" s="18" t="s">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="O78" s="18"/>
       <c r="P78" s="4"/>
       <c r="R78" s="18" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="S78" s="18"/>
       <c r="T78" s="4"/>
       <c r="V78" s="18" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="W78" s="18"/>
       <c r="X78" s="4"/>
@@ -22586,32 +22775,32 @@
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B102" s="18" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="4"/>
       <c r="F102" s="18" t="s">
-        <v>372</v>
+        <v>473</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="4"/>
       <c r="J102" s="18" t="s">
-        <v>405</v>
+        <v>503</v>
       </c>
       <c r="K102" s="18"/>
       <c r="L102" s="4"/>
       <c r="N102" s="18" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="O102" s="18"/>
       <c r="P102" s="4"/>
       <c r="R102" s="18" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="S102" s="18"/>
       <c r="T102" s="4"/>
       <c r="V102" s="18" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="W102" s="18"/>
       <c r="X102" s="4"/>
@@ -23408,32 +23597,32 @@
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
-        <v>377</v>
+        <v>480</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="4"/>
       <c r="F127" s="18" t="s">
-        <v>376</v>
+        <v>471</v>
       </c>
       <c r="G127" s="18"/>
       <c r="H127" s="4"/>
       <c r="J127" s="18" t="s">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="K127" s="18"/>
       <c r="L127" s="4"/>
       <c r="N127" s="18" t="s">
-        <v>408</v>
+        <v>491</v>
       </c>
       <c r="O127" s="18"/>
       <c r="P127" s="4"/>
       <c r="R127" s="18" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="S127" s="18"/>
       <c r="T127" s="4"/>
       <c r="V127" s="18" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="W127" s="18"/>
       <c r="X127" s="4"/>
@@ -24230,32 +24419,32 @@
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B152" s="18" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="4"/>
       <c r="F152" s="18" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
       <c r="G152" s="18"/>
       <c r="H152" s="4"/>
       <c r="J152" s="18" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="K152" s="18"/>
       <c r="L152" s="4"/>
       <c r="N152" s="18" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
       <c r="O152" s="18"/>
       <c r="P152" s="4"/>
       <c r="R152" s="18" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="S152" s="18"/>
       <c r="T152" s="4"/>
       <c r="V152" s="18" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="W152" s="18"/>
       <c r="X152" s="4"/>
@@ -25052,32 +25241,32 @@
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B177" s="18" t="s">
-        <v>385</v>
+        <v>483</v>
       </c>
       <c r="C177" s="18"/>
       <c r="D177" s="4"/>
       <c r="F177" s="18" t="s">
-        <v>384</v>
+        <v>474</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="4"/>
       <c r="J177" s="18" t="s">
-        <v>417</v>
+        <v>504</v>
       </c>
       <c r="K177" s="18"/>
       <c r="L177" s="4"/>
       <c r="N177" s="18" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="O177" s="18"/>
       <c r="P177" s="4"/>
       <c r="R177" s="18" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="S177" s="18"/>
       <c r="T177" s="4"/>
       <c r="V177" s="18" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="W177" s="18"/>
       <c r="X177" s="4"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Round.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Round.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekosolapova/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekosolapova/work/demoMaster/openl-demo/user-workspace3/DEFAULT/Round/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F4FA9-AB22-6C43-98C3-B925BA9F3FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2C1261-C040-C947-9FB7-D33F708ABE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1320" windowWidth="37940" windowHeight="20620" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="1320" windowWidth="37940" windowHeight="20620" tabRatio="707" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="round(value)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7563" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="529">
   <si>
     <t>Rate</t>
   </si>
@@ -1425,49 +1425,112 @@
     <t>Steps</t>
   </si>
   <si>
+    <t>= (Double)0.6013 + (Double) (0.0031)</t>
+  </si>
+  <si>
+    <t>=0.6013d +0.0031d</t>
+  </si>
+  <si>
+    <t>doublePrimitive</t>
+  </si>
+  <si>
+    <t>DoubleBoxed</t>
+  </si>
+  <si>
+    <t>=roundStrict($doublePrimitive, 16)</t>
+  </si>
+  <si>
+    <t>=roundStrict($DoubleBoxed, 16)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult RoundStrictCalc()</t>
+  </si>
+  <si>
+    <t>Test RoundStrictCalc RoundStrictCalcTest</t>
+  </si>
+  <si>
+    <t>StrictRoundPrimitive</t>
+  </si>
+  <si>
+    <t>StrictRoundBoxed</t>
+  </si>
+  <si>
+    <t>_res_.$StrictRoundPrimitive</t>
+  </si>
+  <si>
+    <t>_res_.$StrictRoundBoxed</t>
+  </si>
+  <si>
+    <t>0.6043999999999999</t>
+  </si>
+  <si>
+    <t>RoundPrimitive</t>
+  </si>
+  <si>
+    <t>RoundBoxed</t>
+  </si>
+  <si>
+    <t>=round($doublePrimitive, 16)</t>
+  </si>
+  <si>
+    <t>=round($DoubleBoxed, 16)</t>
+  </si>
+  <si>
+    <t>_res_.$RoundPrimitive</t>
+  </si>
+  <si>
+    <t>_res_.$RoundBoxed</t>
+  </si>
+  <si>
+    <t>0.6044</t>
+  </si>
+  <si>
+    <t>//roundStrict specific</t>
+  </si>
+  <si>
+    <t>Spreadsheet Double  roundStrictDoubleScale(Double  a, int b )</t>
+  </si>
+  <si>
+    <t>Spreadsheet Double  roundStrictdoubleScale(double  a, int b )</t>
+  </si>
+  <si>
+    <t>Spreadsheet Double  roundStrictFloatScale(Float  a, int b )</t>
+  </si>
+  <si>
+    <t>Spreadsheet Double  roundStrictfloatScale(float  a, int b )</t>
+  </si>
+  <si>
     <t>Calc</t>
   </si>
   <si>
-    <t>=roundStrict(a)</t>
-  </si>
-  <si>
-    <t>Test roundStrictDouble roundStrictDoubleTest</t>
+    <t>=roundStrict(a, b)</t>
+  </si>
+  <si>
+    <t>Test roundStrictDoubleScale roundStrictDoubleScaleTest</t>
+  </si>
+  <si>
+    <t>Test roundStrictdoubleScale roundStrictdoubleScaleTest</t>
+  </si>
+  <si>
+    <t>Test roundStrictFloatScale roundStrictFloatScaleTest</t>
+  </si>
+  <si>
+    <t>Test roundStrictfloatScale roundStrictfloatScaleTest</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>// Input parameter is Double</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>_EMPTY_</t>
-  </si>
-  <si>
-    <t>=null</t>
-  </si>
-  <si>
-    <t>Constants</t>
-  </si>
-  <si>
-    <t>Spreadsheet Long roundStrictDouble(Double  a )</t>
-  </si>
-  <si>
-    <t>Spreadsheet Long roundStrictdouble(double  a )</t>
-  </si>
-  <si>
-    <t>Test roundStrictdouble roundStrictdoubleTest</t>
-  </si>
-  <si>
-    <t>2147483648</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>B</t>
   </si>
   <si>
     <t>tst1</t>
@@ -1509,72 +1572,42 @@
     <t>tst13</t>
   </si>
   <si>
+    <t>2147483650</t>
+  </si>
+  <si>
     <t>tst14</t>
   </si>
   <si>
+    <t>tst20</t>
+  </si>
+  <si>
     <t>tst15</t>
   </si>
   <si>
+    <t>tst21</t>
+  </si>
+  <si>
     <t>tst16</t>
   </si>
   <si>
+    <t>tst22</t>
+  </si>
+  <si>
     <t>tst17</t>
   </si>
   <si>
-    <t>// Input parameter is Float</t>
-  </si>
-  <si>
-    <t>Test roundStrictFloat roundStrictFloatTest</t>
-  </si>
-  <si>
-    <t>Spreadsheet Long roundStrictFloat(Float  a )</t>
-  </si>
-  <si>
-    <t>Spreadsheet Long roundStrictfloat(float  a )</t>
-  </si>
-  <si>
-    <t>Test roundStrictfloat roundStrictfloatTest</t>
-  </si>
-  <si>
-    <t>2147483650</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>=roundStrict(a, b)</t>
-  </si>
-  <si>
-    <t>Spreadsheet Double  roundStrictDoubleScale(Double  a, int b )</t>
+    <t>tst23</t>
   </si>
   <si>
     <t>tst18</t>
   </si>
   <si>
+    <t>tst24</t>
+  </si>
+  <si>
     <t>tst19</t>
   </si>
   <si>
-    <t>Test roundStrictDoubleScale roundStrictDoubleScaleTest</t>
-  </si>
-  <si>
-    <t>tst20</t>
-  </si>
-  <si>
-    <t>tst21</t>
-  </si>
-  <si>
-    <t>tst22</t>
-  </si>
-  <si>
-    <t>tst23</t>
-  </si>
-  <si>
-    <t>tst24</t>
-  </si>
-  <si>
     <t>tst25</t>
   </si>
   <si>
@@ -1591,55 +1624,13 @@
   </si>
   <si>
     <t>tst30</t>
-  </si>
-  <si>
-    <t>tst31</t>
-  </si>
-  <si>
-    <t>tst32</t>
-  </si>
-  <si>
-    <t>tst33</t>
-  </si>
-  <si>
-    <t>tst34</t>
-  </si>
-  <si>
-    <t>tst35</t>
-  </si>
-  <si>
-    <t>tst36</t>
-  </si>
-  <si>
-    <t>tst37</t>
-  </si>
-  <si>
-    <t>Spreadsheet Double  roundStrictdoubleScale(double  a, int b )</t>
-  </si>
-  <si>
-    <t>Test roundStrictdoubleScale roundStrictdoubleScaleTest</t>
-  </si>
-  <si>
-    <t>// Input parameter is float</t>
-  </si>
-  <si>
-    <t>Spreadsheet Double  roundStrictFloatScale(Float  a, int b )</t>
-  </si>
-  <si>
-    <t>Test roundStrictFloatScale roundStrictFloatScaleTest</t>
-  </si>
-  <si>
-    <t>Spreadsheet Double  roundStrictfloatScale(float  a, int b )</t>
-  </si>
-  <si>
-    <t>Test roundStrictfloatScale roundStrictfloatScaleTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1663,6 +1654,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1671,7 +1668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1680,12 +1677,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1717,23 +1726,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1744,10 +1742,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1766,15 +1760,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25:D31"/>
     </sheetView>
   </sheetViews>
@@ -2143,30 +2140,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="O3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="V3" s="11" t="s">
+      <c r="S3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="W3" s="11"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -2233,36 +2230,36 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="R9" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="V9" s="11" t="s">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="V9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -3513,30 +3510,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="O3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="V3" s="11" t="s">
+      <c r="S3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="W3" s="11"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -3603,36 +3600,36 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="R9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="V9" s="11" t="s">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="V9" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -4595,30 +4592,30 @@
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="C35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="J35" s="11" t="s">
+      <c r="G35" s="7"/>
+      <c r="J35" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="N35" s="11" t="s">
+      <c r="K35" s="7"/>
+      <c r="N35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O35" s="11"/>
-      <c r="R35" s="11" t="s">
+      <c r="O35" s="7"/>
+      <c r="R35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="V35" s="11" t="s">
+      <c r="S35" s="7"/>
+      <c r="V35" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="W35" s="11"/>
+      <c r="W35" s="7"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -4685,36 +4682,36 @@
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="F41" s="11" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="J41" s="11" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="J41" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="N41" s="11" t="s">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="N41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="R41" s="11" t="s">
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="R41" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="V41" s="11" t="s">
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="V41" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -5677,30 +5674,30 @@
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="C67" s="7"/>
+      <c r="F67" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="J67" s="11" t="s">
+      <c r="G67" s="7"/>
+      <c r="J67" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K67" s="11"/>
-      <c r="N67" s="11" t="s">
+      <c r="K67" s="7"/>
+      <c r="N67" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="O67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="O67" s="7"/>
+      <c r="R67" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="V67" s="11" t="s">
+      <c r="S67" s="7"/>
+      <c r="V67" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="W67" s="11"/>
+      <c r="W67" s="7"/>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
@@ -5767,36 +5764,36 @@
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="F73" s="11" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="F73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="J73" s="11" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="J73" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="N73" s="11" t="s">
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="N73" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="R73" s="11" t="s">
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="R73" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="V73" s="11" t="s">
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="V73" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
@@ -6833,30 +6830,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="O3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="V3" s="11" t="s">
+      <c r="S3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="W3" s="11"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -6923,36 +6920,36 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="R9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="V9" s="11" t="s">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="V9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -7918,30 +7915,30 @@
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="C35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="J35" s="11" t="s">
+      <c r="G35" s="7"/>
+      <c r="J35" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="N35" s="11" t="s">
+      <c r="K35" s="7"/>
+      <c r="N35" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="O35" s="11"/>
-      <c r="R35" s="11" t="s">
+      <c r="O35" s="7"/>
+      <c r="R35" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="V35" s="11" t="s">
+      <c r="S35" s="7"/>
+      <c r="V35" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="W35" s="11"/>
+      <c r="W35" s="7"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -8008,36 +8005,36 @@
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="F41" s="11" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="J41" s="11" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="J41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="N41" s="11" t="s">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="N41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="R41" s="11" t="s">
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="R41" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="V41" s="11" t="s">
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="V41" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -9000,30 +8997,30 @@
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="C67" s="7"/>
+      <c r="F67" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="J67" s="11" t="s">
+      <c r="G67" s="7"/>
+      <c r="J67" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K67" s="11"/>
-      <c r="N67" s="11" t="s">
+      <c r="K67" s="7"/>
+      <c r="N67" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="O67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="O67" s="7"/>
+      <c r="R67" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="V67" s="11" t="s">
+      <c r="S67" s="7"/>
+      <c r="V67" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="W67" s="11"/>
+      <c r="W67" s="7"/>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
@@ -9090,31 +9087,31 @@
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="F73" s="11" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="F73" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="J73" s="11" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="J73" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="N73" s="11" t="s">
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="N73" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="V73" s="11" t="s">
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="V73" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
@@ -9969,30 +9966,30 @@
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="F99" s="11" t="s">
+      <c r="C99" s="7"/>
+      <c r="F99" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="J99" s="11" t="s">
+      <c r="G99" s="7"/>
+      <c r="J99" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K99" s="11"/>
-      <c r="N99" s="11" t="s">
+      <c r="K99" s="7"/>
+      <c r="N99" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="O99" s="11"/>
-      <c r="R99" s="11" t="s">
+      <c r="O99" s="7"/>
+      <c r="R99" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="S99" s="11"/>
-      <c r="V99" s="11" t="s">
+      <c r="S99" s="7"/>
+      <c r="V99" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="W99" s="11"/>
+      <c r="W99" s="7"/>
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
@@ -10059,36 +10056,36 @@
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="F105" s="11" t="s">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="F105" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="J105" s="11" t="s">
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="J105" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="N105" s="11" t="s">
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="N105" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="R105" s="11" t="s">
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="R105" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="V105" s="11" t="s">
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="V105" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
@@ -11051,30 +11048,30 @@
       </c>
     </row>
     <row r="130" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="F130" s="11" t="s">
+      <c r="C130" s="7"/>
+      <c r="F130" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G130" s="11"/>
-      <c r="J130" s="11" t="s">
+      <c r="G130" s="7"/>
+      <c r="J130" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K130" s="11"/>
-      <c r="N130" s="11" t="s">
+      <c r="K130" s="7"/>
+      <c r="N130" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O130" s="11"/>
-      <c r="R130" s="11" t="s">
+      <c r="O130" s="7"/>
+      <c r="R130" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="S130" s="11"/>
-      <c r="V130" s="11" t="s">
+      <c r="S130" s="7"/>
+      <c r="V130" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="W130" s="11"/>
+      <c r="W130" s="7"/>
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
@@ -11141,36 +11138,36 @@
       </c>
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="F136" s="11" t="s">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="F136" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="J136" s="11" t="s">
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="J136" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="N136" s="11" t="s">
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="N136" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="R136" s="11" t="s">
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="R136" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="V136" s="11" t="s">
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="V136" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="W136" s="11"/>
-      <c r="X136" s="11"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="7"/>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
@@ -12133,30 +12130,30 @@
       </c>
     </row>
     <row r="162" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C162" s="11"/>
-      <c r="F162" s="11" t="s">
+      <c r="C162" s="7"/>
+      <c r="F162" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G162" s="11"/>
-      <c r="J162" s="11" t="s">
+      <c r="G162" s="7"/>
+      <c r="J162" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K162" s="11"/>
-      <c r="N162" s="11" t="s">
+      <c r="K162" s="7"/>
+      <c r="N162" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="O162" s="11"/>
-      <c r="R162" s="11" t="s">
+      <c r="O162" s="7"/>
+      <c r="R162" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="S162" s="11"/>
-      <c r="V162" s="11" t="s">
+      <c r="S162" s="7"/>
+      <c r="V162" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="W162" s="11"/>
+      <c r="W162" s="7"/>
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
@@ -12223,36 +12220,36 @@
       </c>
     </row>
     <row r="168" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="F168" s="11" t="s">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="F168" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
-      <c r="J168" s="11" t="s">
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="J168" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="N168" s="11" t="s">
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="N168" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O168" s="11"/>
-      <c r="P168" s="11"/>
-      <c r="R168" s="11" t="s">
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="R168" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="S168" s="11"/>
-      <c r="T168" s="11"/>
-      <c r="V168" s="11" t="s">
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="V168" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="W168" s="11"/>
-      <c r="X168" s="11"/>
+      <c r="W168" s="7"/>
+      <c r="X168" s="7"/>
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
@@ -13215,30 +13212,30 @@
       </c>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C194" s="11"/>
-      <c r="F194" s="11" t="s">
+      <c r="C194" s="7"/>
+      <c r="F194" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G194" s="11"/>
-      <c r="J194" s="11" t="s">
+      <c r="G194" s="7"/>
+      <c r="J194" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K194" s="11"/>
-      <c r="N194" s="11" t="s">
+      <c r="K194" s="7"/>
+      <c r="N194" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="O194" s="11"/>
-      <c r="R194" s="11" t="s">
+      <c r="O194" s="7"/>
+      <c r="R194" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="S194" s="11"/>
-      <c r="V194" s="11" t="s">
+      <c r="S194" s="7"/>
+      <c r="V194" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="W194" s="11"/>
+      <c r="W194" s="7"/>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
@@ -13305,36 +13302,36 @@
       </c>
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="F200" s="11" t="s">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="F200" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="J200" s="11" t="s">
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="J200" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K200" s="11"/>
-      <c r="L200" s="11"/>
-      <c r="N200" s="11" t="s">
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="N200" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="O200" s="11"/>
-      <c r="P200" s="11"/>
-      <c r="R200" s="11" t="s">
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
+      <c r="R200" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="S200" s="11"/>
-      <c r="T200" s="11"/>
-      <c r="V200" s="11" t="s">
+      <c r="S200" s="7"/>
+      <c r="T200" s="7"/>
+      <c r="V200" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="W200" s="11"/>
-      <c r="X200" s="11"/>
+      <c r="W200" s="7"/>
+      <c r="X200" s="7"/>
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
@@ -14297,30 +14294,30 @@
       </c>
     </row>
     <row r="226" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C226" s="11"/>
-      <c r="F226" s="11" t="s">
+      <c r="C226" s="7"/>
+      <c r="F226" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G226" s="11"/>
-      <c r="J226" s="11" t="s">
+      <c r="G226" s="7"/>
+      <c r="J226" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K226" s="11"/>
-      <c r="N226" s="11" t="s">
+      <c r="K226" s="7"/>
+      <c r="N226" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O226" s="11"/>
-      <c r="R226" s="11" t="s">
+      <c r="O226" s="7"/>
+      <c r="R226" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="S226" s="11"/>
-      <c r="V226" s="11" t="s">
+      <c r="S226" s="7"/>
+      <c r="V226" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="W226" s="11"/>
+      <c r="W226" s="7"/>
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
@@ -14387,36 +14384,36 @@
       </c>
     </row>
     <row r="232" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="F232" s="11" t="s">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="F232" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G232" s="11"/>
-      <c r="H232" s="11"/>
-      <c r="J232" s="11" t="s">
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="J232" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K232" s="11"/>
-      <c r="L232" s="11"/>
-      <c r="N232" s="11" t="s">
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="N232" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="O232" s="11"/>
-      <c r="P232" s="11"/>
-      <c r="R232" s="11" t="s">
+      <c r="O232" s="7"/>
+      <c r="P232" s="7"/>
+      <c r="R232" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="S232" s="11"/>
-      <c r="T232" s="11"/>
-      <c r="V232" s="11" t="s">
+      <c r="S232" s="7"/>
+      <c r="T232" s="7"/>
+      <c r="V232" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="W232" s="11"/>
-      <c r="X232" s="11"/>
+      <c r="W232" s="7"/>
+      <c r="X232" s="7"/>
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
@@ -15239,30 +15236,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="O3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="V3" s="11" t="s">
+      <c r="S3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="W3" s="11"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -15329,36 +15326,36 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="R9" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="V9" s="11" t="s">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="V9" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -16321,30 +16318,30 @@
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="C35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="J35" s="11" t="s">
+      <c r="G35" s="7"/>
+      <c r="J35" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="N35" s="11" t="s">
+      <c r="K35" s="7"/>
+      <c r="N35" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="O35" s="11"/>
-      <c r="R35" s="11" t="s">
+      <c r="O35" s="7"/>
+      <c r="R35" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="V35" s="11" t="s">
+      <c r="S35" s="7"/>
+      <c r="V35" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="W35" s="11"/>
+      <c r="W35" s="7"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -16411,36 +16408,36 @@
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="F41" s="11" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="J41" s="11" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="J41" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="N41" s="11" t="s">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="N41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="R41" s="11" t="s">
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="R41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="V41" s="11" t="s">
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="V41" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -17403,30 +17400,30 @@
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="C67" s="7"/>
+      <c r="F67" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="J67" s="11" t="s">
+      <c r="G67" s="7"/>
+      <c r="J67" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K67" s="11"/>
-      <c r="N67" s="11" t="s">
+      <c r="K67" s="7"/>
+      <c r="N67" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="O67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="O67" s="7"/>
+      <c r="R67" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="V67" s="11" t="s">
+      <c r="S67" s="7"/>
+      <c r="V67" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="W67" s="11"/>
+      <c r="W67" s="7"/>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
@@ -17493,31 +17490,31 @@
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="F73" s="11" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="F73" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="J73" s="11" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="J73" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="N73" s="11" t="s">
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="N73" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="V73" s="11" t="s">
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="V73" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
@@ -18372,30 +18369,30 @@
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="F99" s="11" t="s">
+      <c r="C99" s="7"/>
+      <c r="F99" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="J99" s="11" t="s">
+      <c r="G99" s="7"/>
+      <c r="J99" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K99" s="11"/>
-      <c r="N99" s="11" t="s">
+      <c r="K99" s="7"/>
+      <c r="N99" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O99" s="11"/>
-      <c r="R99" s="11" t="s">
+      <c r="O99" s="7"/>
+      <c r="R99" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="S99" s="11"/>
-      <c r="V99" s="11" t="s">
+      <c r="S99" s="7"/>
+      <c r="V99" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="W99" s="11"/>
+      <c r="W99" s="7"/>
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
@@ -18462,36 +18459,36 @@
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="F105" s="11" t="s">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="F105" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="J105" s="11" t="s">
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="J105" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="N105" s="11" t="s">
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="N105" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="R105" s="11" t="s">
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="R105" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="V105" s="11" t="s">
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="V105" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
@@ -19454,30 +19451,30 @@
       </c>
     </row>
     <row r="130" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="F130" s="11" t="s">
+      <c r="C130" s="7"/>
+      <c r="F130" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G130" s="11"/>
-      <c r="J130" s="11" t="s">
+      <c r="G130" s="7"/>
+      <c r="J130" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K130" s="11"/>
-      <c r="N130" s="11" t="s">
+      <c r="K130" s="7"/>
+      <c r="N130" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O130" s="11"/>
-      <c r="R130" s="11" t="s">
+      <c r="O130" s="7"/>
+      <c r="R130" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="S130" s="11"/>
-      <c r="V130" s="11" t="s">
+      <c r="S130" s="7"/>
+      <c r="V130" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="W130" s="11"/>
+      <c r="W130" s="7"/>
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
@@ -19544,36 +19541,36 @@
       </c>
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="F136" s="11" t="s">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="F136" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="J136" s="11" t="s">
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="J136" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="N136" s="11" t="s">
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="N136" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="R136" s="11" t="s">
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="R136" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="V136" s="11" t="s">
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="V136" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="W136" s="11"/>
-      <c r="X136" s="11"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="7"/>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
@@ -20536,30 +20533,30 @@
       </c>
     </row>
     <row r="162" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C162" s="11"/>
-      <c r="F162" s="11" t="s">
+      <c r="C162" s="7"/>
+      <c r="F162" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G162" s="11"/>
-      <c r="J162" s="11" t="s">
+      <c r="G162" s="7"/>
+      <c r="J162" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K162" s="11"/>
-      <c r="N162" s="11" t="s">
+      <c r="K162" s="7"/>
+      <c r="N162" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="O162" s="11"/>
-      <c r="R162" s="11" t="s">
+      <c r="O162" s="7"/>
+      <c r="R162" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="S162" s="11"/>
-      <c r="V162" s="11" t="s">
+      <c r="S162" s="7"/>
+      <c r="V162" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="W162" s="11"/>
+      <c r="W162" s="7"/>
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
@@ -20626,36 +20623,36 @@
       </c>
     </row>
     <row r="168" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="F168" s="11" t="s">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="F168" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
-      <c r="J168" s="11" t="s">
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="J168" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="N168" s="11" t="s">
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="N168" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="O168" s="11"/>
-      <c r="P168" s="11"/>
-      <c r="R168" s="11" t="s">
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="R168" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="S168" s="11"/>
-      <c r="T168" s="11"/>
-      <c r="V168" s="11" t="s">
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="V168" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="W168" s="11"/>
-      <c r="X168" s="11"/>
+      <c r="W168" s="7"/>
+      <c r="X168" s="7"/>
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
@@ -21618,30 +21615,30 @@
       </c>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C194" s="11"/>
-      <c r="F194" s="11" t="s">
+      <c r="C194" s="7"/>
+      <c r="F194" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G194" s="11"/>
-      <c r="J194" s="11" t="s">
+      <c r="G194" s="7"/>
+      <c r="J194" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K194" s="11"/>
-      <c r="N194" s="11" t="s">
+      <c r="K194" s="7"/>
+      <c r="N194" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="O194" s="11"/>
-      <c r="R194" s="11" t="s">
+      <c r="O194" s="7"/>
+      <c r="R194" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="S194" s="11"/>
-      <c r="V194" s="11" t="s">
+      <c r="S194" s="7"/>
+      <c r="V194" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="W194" s="11"/>
+      <c r="W194" s="7"/>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
@@ -21708,36 +21705,36 @@
       </c>
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="F200" s="11" t="s">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="F200" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="J200" s="11" t="s">
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="J200" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K200" s="11"/>
-      <c r="L200" s="11"/>
-      <c r="N200" s="11" t="s">
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="N200" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="O200" s="11"/>
-      <c r="P200" s="11"/>
-      <c r="R200" s="11" t="s">
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
+      <c r="R200" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="S200" s="11"/>
-      <c r="T200" s="11"/>
-      <c r="V200" s="11" t="s">
+      <c r="S200" s="7"/>
+      <c r="T200" s="7"/>
+      <c r="V200" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="W200" s="11"/>
-      <c r="X200" s="11"/>
+      <c r="W200" s="7"/>
+      <c r="X200" s="7"/>
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
@@ -22700,30 +22697,30 @@
       </c>
     </row>
     <row r="226" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C226" s="11"/>
-      <c r="F226" s="11" t="s">
+      <c r="C226" s="7"/>
+      <c r="F226" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G226" s="11"/>
-      <c r="J226" s="11" t="s">
+      <c r="G226" s="7"/>
+      <c r="J226" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K226" s="11"/>
-      <c r="N226" s="11" t="s">
+      <c r="K226" s="7"/>
+      <c r="N226" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="O226" s="11"/>
-      <c r="R226" s="11" t="s">
+      <c r="O226" s="7"/>
+      <c r="R226" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="S226" s="11"/>
-      <c r="V226" s="11" t="s">
+      <c r="S226" s="7"/>
+      <c r="V226" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="W226" s="11"/>
+      <c r="W226" s="7"/>
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
@@ -22790,36 +22787,36 @@
       </c>
     </row>
     <row r="232" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="F232" s="11" t="s">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="F232" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G232" s="11"/>
-      <c r="H232" s="11"/>
-      <c r="J232" s="11" t="s">
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="J232" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K232" s="11"/>
-      <c r="L232" s="11"/>
-      <c r="N232" s="11" t="s">
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="N232" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="O232" s="11"/>
-      <c r="P232" s="11"/>
-      <c r="R232" s="11" t="s">
+      <c r="O232" s="7"/>
+      <c r="P232" s="7"/>
+      <c r="R232" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="S232" s="11"/>
-      <c r="T232" s="11"/>
-      <c r="V232" s="11" t="s">
+      <c r="S232" s="7"/>
+      <c r="T232" s="7"/>
+      <c r="V232" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="W232" s="11"/>
-      <c r="X232" s="11"/>
+      <c r="W232" s="7"/>
+      <c r="X232" s="7"/>
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
@@ -23643,30 +23640,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="O3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="V3" s="11" t="s">
+      <c r="S3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="W3" s="11"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -23733,36 +23730,36 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="R9" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="V9" s="11" t="s">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="V9" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -24625,30 +24622,30 @@
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="C35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="J35" s="11" t="s">
+      <c r="G35" s="7"/>
+      <c r="J35" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="N35" s="11" t="s">
+      <c r="K35" s="7"/>
+      <c r="N35" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="O35" s="11"/>
-      <c r="R35" s="11" t="s">
+      <c r="O35" s="7"/>
+      <c r="R35" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="V35" s="11" t="s">
+      <c r="S35" s="7"/>
+      <c r="V35" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="W35" s="11"/>
+      <c r="W35" s="7"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -24715,36 +24712,36 @@
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="F41" s="11" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="J41" s="11" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="J41" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="N41" s="11" t="s">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="N41" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="R41" s="11" t="s">
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="R41" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="V41" s="11" t="s">
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="V41" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -25651,30 +25648,30 @@
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="C67" s="7"/>
+      <c r="F67" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="J67" s="11" t="s">
+      <c r="G67" s="7"/>
+      <c r="J67" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K67" s="11"/>
-      <c r="N67" s="11" t="s">
+      <c r="K67" s="7"/>
+      <c r="N67" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="O67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="O67" s="7"/>
+      <c r="R67" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="V67" s="11" t="s">
+      <c r="S67" s="7"/>
+      <c r="V67" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="W67" s="11"/>
+      <c r="W67" s="7"/>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
@@ -25741,31 +25738,31 @@
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="F73" s="11" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="F73" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="J73" s="11" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="J73" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="N73" s="11" t="s">
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="N73" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="V73" s="11" t="s">
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="V73" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
@@ -26507,30 +26504,30 @@
     </row>
     <row r="94" spans="2:24" ht="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="F99" s="11" t="s">
+      <c r="C99" s="7"/>
+      <c r="F99" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="J99" s="11" t="s">
+      <c r="G99" s="7"/>
+      <c r="J99" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K99" s="11"/>
-      <c r="N99" s="11" t="s">
+      <c r="K99" s="7"/>
+      <c r="N99" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="O99" s="11"/>
-      <c r="R99" s="11" t="s">
+      <c r="O99" s="7"/>
+      <c r="R99" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="S99" s="11"/>
-      <c r="V99" s="11" t="s">
+      <c r="S99" s="7"/>
+      <c r="V99" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="W99" s="11"/>
+      <c r="W99" s="7"/>
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
@@ -26597,36 +26594,36 @@
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="F105" s="11" t="s">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="F105" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="J105" s="11" t="s">
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="J105" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="N105" s="11" t="s">
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="N105" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="R105" s="11" t="s">
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="R105" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="V105" s="11" t="s">
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="V105" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
@@ -27533,30 +27530,30 @@
       </c>
     </row>
     <row r="130" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="F130" s="11" t="s">
+      <c r="C130" s="7"/>
+      <c r="F130" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G130" s="11"/>
-      <c r="J130" s="11" t="s">
+      <c r="G130" s="7"/>
+      <c r="J130" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K130" s="11"/>
-      <c r="N130" s="11" t="s">
+      <c r="K130" s="7"/>
+      <c r="N130" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="O130" s="11"/>
-      <c r="R130" s="11" t="s">
+      <c r="O130" s="7"/>
+      <c r="R130" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="S130" s="11"/>
-      <c r="V130" s="11" t="s">
+      <c r="S130" s="7"/>
+      <c r="V130" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="W130" s="11"/>
+      <c r="W130" s="7"/>
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
@@ -27623,36 +27620,36 @@
       </c>
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="F136" s="11" t="s">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="F136" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="J136" s="11" t="s">
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="J136" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="N136" s="11" t="s">
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="N136" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="R136" s="11" t="s">
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="R136" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="V136" s="11" t="s">
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="V136" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="W136" s="11"/>
-      <c r="X136" s="11"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="7"/>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
@@ -28530,30 +28527,30 @@
       </c>
     </row>
     <row r="162" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C162" s="11"/>
-      <c r="F162" s="11" t="s">
+      <c r="C162" s="7"/>
+      <c r="F162" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G162" s="11"/>
-      <c r="J162" s="11" t="s">
+      <c r="G162" s="7"/>
+      <c r="J162" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K162" s="11"/>
-      <c r="N162" s="11" t="s">
+      <c r="K162" s="7"/>
+      <c r="N162" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="O162" s="11"/>
-      <c r="R162" s="11" t="s">
+      <c r="O162" s="7"/>
+      <c r="R162" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="S162" s="11"/>
-      <c r="V162" s="11" t="s">
+      <c r="S162" s="7"/>
+      <c r="V162" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="W162" s="11"/>
+      <c r="W162" s="7"/>
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
@@ -28620,36 +28617,36 @@
       </c>
     </row>
     <row r="168" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="F168" s="11" t="s">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="F168" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
-      <c r="J168" s="11" t="s">
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="J168" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="N168" s="11" t="s">
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="N168" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="O168" s="11"/>
-      <c r="P168" s="11"/>
-      <c r="R168" s="11" t="s">
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="R168" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="S168" s="11"/>
-      <c r="T168" s="11"/>
-      <c r="V168" s="11" t="s">
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="V168" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="W168" s="11"/>
-      <c r="X168" s="11"/>
+      <c r="W168" s="7"/>
+      <c r="X168" s="7"/>
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
@@ -29574,30 +29571,30 @@
       </c>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C194" s="11"/>
-      <c r="F194" s="11" t="s">
+      <c r="C194" s="7"/>
+      <c r="F194" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G194" s="11"/>
-      <c r="J194" s="11" t="s">
+      <c r="G194" s="7"/>
+      <c r="J194" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K194" s="11"/>
-      <c r="N194" s="11" t="s">
+      <c r="K194" s="7"/>
+      <c r="N194" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="O194" s="11"/>
-      <c r="R194" s="11" t="s">
+      <c r="O194" s="7"/>
+      <c r="R194" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="S194" s="11"/>
-      <c r="V194" s="11" t="s">
+      <c r="S194" s="7"/>
+      <c r="V194" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="W194" s="11"/>
+      <c r="W194" s="7"/>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
@@ -29664,36 +29661,36 @@
       </c>
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="F200" s="11" t="s">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="F200" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="J200" s="11" t="s">
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="J200" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K200" s="11"/>
-      <c r="L200" s="11"/>
-      <c r="N200" s="11" t="s">
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="N200" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="O200" s="11"/>
-      <c r="P200" s="11"/>
-      <c r="R200" s="11" t="s">
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
+      <c r="R200" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="S200" s="11"/>
-      <c r="T200" s="11"/>
-      <c r="V200" s="11" t="s">
+      <c r="S200" s="7"/>
+      <c r="T200" s="7"/>
+      <c r="V200" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="W200" s="11"/>
-      <c r="X200" s="11"/>
+      <c r="W200" s="7"/>
+      <c r="X200" s="7"/>
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
@@ -30580,30 +30577,30 @@
       </c>
     </row>
     <row r="226" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C226" s="11"/>
-      <c r="F226" s="11" t="s">
+      <c r="C226" s="7"/>
+      <c r="F226" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G226" s="11"/>
-      <c r="J226" s="11" t="s">
+      <c r="G226" s="7"/>
+      <c r="J226" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K226" s="11"/>
-      <c r="N226" s="11" t="s">
+      <c r="K226" s="7"/>
+      <c r="N226" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="O226" s="11"/>
-      <c r="R226" s="11" t="s">
+      <c r="O226" s="7"/>
+      <c r="R226" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="S226" s="11"/>
-      <c r="V226" s="11" t="s">
+      <c r="S226" s="7"/>
+      <c r="V226" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="W226" s="11"/>
+      <c r="W226" s="7"/>
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
@@ -30670,36 +30667,36 @@
       </c>
     </row>
     <row r="232" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="F232" s="11" t="s">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="F232" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G232" s="11"/>
-      <c r="H232" s="11"/>
-      <c r="J232" s="11" t="s">
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="J232" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K232" s="11"/>
-      <c r="L232" s="11"/>
-      <c r="N232" s="11" t="s">
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="N232" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="O232" s="11"/>
-      <c r="P232" s="11"/>
-      <c r="R232" s="11" t="s">
+      <c r="O232" s="7"/>
+      <c r="P232" s="7"/>
+      <c r="R232" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="S232" s="11"/>
-      <c r="T232" s="11"/>
-      <c r="V232" s="11" t="s">
+      <c r="S232" s="7"/>
+      <c r="T232" s="7"/>
+      <c r="V232" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="W232" s="11"/>
-      <c r="X232" s="11"/>
+      <c r="W232" s="7"/>
+      <c r="X232" s="7"/>
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
@@ -31277,67 +31274,67 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="F5" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F6" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F7" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -31371,12 +31368,12 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
@@ -31547,2518 +31544,1544 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6065CFA7-73DE-E24B-9AC1-D6E0543E339C}">
-  <dimension ref="B3:T88"/>
+  <dimension ref="B2:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.83203125" customWidth="1"/>
-    <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" customWidth="1"/>
+    <col min="6" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="G3" t="s">
-        <v>467</v>
-      </c>
-      <c r="L3" t="s">
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C20" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="H20" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="M20" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="R20" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="L26" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="Q26" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="E27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="1">
+        <v>2</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="1">
+        <v>2</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" s="1">
+        <v>2</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="1">
+        <v>2</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="1">
+        <v>2</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S36" s="1">
+        <v>2</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C38" s="2">
+        <v>180</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>180</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H38" s="2">
+        <v>180</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>180</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M38" s="2">
+        <v>180</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="2">
+        <v>180</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="R38" s="2">
+        <v>180</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2</v>
+      </c>
+      <c r="T38" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2147483647</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2147483647</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="S41" s="1">
+        <v>2</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S43" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S45" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O46" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S46" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T46" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O47" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T47" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O48" s="4">
+        <v>-100</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T48" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O49" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O50" s="4">
+        <v>-100</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S50" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T50" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="G5" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="L5" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="Q5" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
-      <c r="G11" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="L11" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="20"/>
-      <c r="Q11" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="20"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1">
-        <v>32</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="1">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-32</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-32</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="1">
-        <v>-32</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="1">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1">
-        <v>361</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="1">
-        <v>361</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="1">
-        <v>361</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="1">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1">
-        <v>112</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="1">
-        <v>112</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="1">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-112</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-112</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="1">
-        <v>-112</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="1">
-        <v>-112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C21" s="2">
-        <v>180</v>
-      </c>
-      <c r="D21" s="1">
-        <v>180</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H21" s="2">
-        <v>180</v>
-      </c>
-      <c r="I21" s="1">
-        <v>180</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="M21" s="2">
-        <v>180</v>
-      </c>
-      <c r="N21" s="1">
-        <v>180</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="R21" s="2">
-        <v>180</v>
-      </c>
-      <c r="S21" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="Q23" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="M25" s="10"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="M26" s="10"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="6"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="6"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2147483646</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2147483646</v>
-      </c>
-      <c r="M30" s="10"/>
-      <c r="R30" s="10"/>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="D34" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C39" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>468</v>
-      </c>
-      <c r="D40" t="s">
-        <v>469</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C43" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="H43" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="M43" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="N43" s="17"/>
-      <c r="R43" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="S43" s="17"/>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="G49" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="L49" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="Q49" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="S50" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="T50" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="R51" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="T51" s="7" t="s">
-        <v>172</v>
+      <c r="M51" s="2">
+        <v>180</v>
+      </c>
+      <c r="N51" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O51" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="R51" s="2">
+        <v>180</v>
+      </c>
+      <c r="S51" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T51" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>521</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>23</v>
+        <v>-2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>400</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>8</v>
+        <v>521</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I52" s="1">
-        <v>2</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>23</v>
+        <v>-2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>400</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>8</v>
+        <v>528</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="N52" s="1">
-        <v>2</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>23</v>
+        <v>-2</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2147483700</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>8</v>
+        <v>528</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="S52" s="1">
-        <v>2</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="1">
-        <v>2</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N53" s="1">
-        <v>2</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S53" s="1">
-        <v>2</v>
-      </c>
-      <c r="T53" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>2</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1">
-        <v>2</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>2</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="1">
-        <v>2</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" s="1">
-        <v>2</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S55" s="1">
-        <v>2</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="1">
-        <v>2</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N56" s="1">
-        <v>2</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S56" s="1">
-        <v>2</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="1">
-        <v>2</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N57" s="1">
-        <v>2</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S57" s="1">
-        <v>2</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="1">
-        <v>2</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="1">
-        <v>2</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="1">
-        <v>2</v>
-      </c>
-      <c r="T58" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I59" s="1">
-        <v>2</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N59" s="1">
-        <v>2</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="R59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S59" s="1">
-        <v>2</v>
-      </c>
-      <c r="T59" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N60" s="1">
-        <v>2</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S60" s="1">
-        <v>2</v>
-      </c>
-      <c r="T60" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C61" s="2">
-        <v>180</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2">
-        <v>180</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H61" s="2">
-        <v>180</v>
-      </c>
-      <c r="I61" s="1">
-        <v>2</v>
-      </c>
-      <c r="J61" s="2">
-        <v>180</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="M61" s="2">
-        <v>180</v>
-      </c>
-      <c r="N61" s="1">
-        <v>2</v>
-      </c>
-      <c r="O61" s="2">
-        <v>180</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="R61" s="2">
-        <v>180</v>
-      </c>
-      <c r="S61" s="1">
-        <v>2</v>
-      </c>
-      <c r="T61" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N62" s="1"/>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S62" s="1"/>
-      <c r="T62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1">
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="I64" s="1">
-        <v>2</v>
-      </c>
-      <c r="J64" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="N64" s="1">
-        <v>2</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="R64" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="S64" s="1">
-        <v>2</v>
-      </c>
-      <c r="T64" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="I65" s="1">
-        <v>2</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N65" s="1">
         <v>-2</v>
       </c>
-      <c r="O65" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S65" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D66" s="1">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I66" s="1">
-        <v>2</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N66" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="R66" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S66" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="I67" s="1">
-        <v>2</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0</v>
-      </c>
-      <c r="N67" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="R67" s="2">
-        <v>0</v>
-      </c>
-      <c r="S67" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="I68" s="1">
-        <v>2</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N68" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S68" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="I69" s="1">
-        <v>2</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N69" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O69" s="2">
-        <v>400</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="R69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S69" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T69" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="I70" s="1">
-        <v>2</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N70" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O70" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="R70" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S70" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T70" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E71" s="2">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N71" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O71" s="4">
-        <v>-100</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="R71" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S71" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T71" s="4">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E72" s="2">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I72" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N72" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O72" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="R72" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S72" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T72" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E73" s="2">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N73" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O73" s="4">
-        <v>-100</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="R73" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S73" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T73" s="4">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E74" s="2">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="M74" s="2">
-        <v>180</v>
-      </c>
-      <c r="N74" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O74" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="R74" s="2">
-        <v>180</v>
-      </c>
-      <c r="S74" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T74" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E75" s="2">
-        <v>400</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J75" s="2">
-        <v>400</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="N75" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O75" s="1">
+      <c r="T52" s="1">
         <v>2147483700</v>
       </c>
-      <c r="Q75" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="R75" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="S75" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T75" s="1">
-        <v>2147483700</v>
-      </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E76" s="2">
-        <v>100</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I76" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J76" s="2">
-        <v>100</v>
-      </c>
-      <c r="M76" s="10"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E77" s="4">
-        <v>-100</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J77" s="4">
-        <v>-100</v>
-      </c>
-      <c r="M77" s="10"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E78" s="2">
-        <v>100</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I78" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J78" s="2">
-        <v>100</v>
-      </c>
-      <c r="M78" s="10"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E79" s="4">
-        <v>-100</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I79" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J79" s="4">
-        <v>-100</v>
-      </c>
-      <c r="M79" s="10"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C80" s="2">
-        <v>180</v>
-      </c>
-      <c r="D80" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E80" s="2">
-        <v>200</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H80" s="2">
-        <v>180</v>
-      </c>
-      <c r="I80" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J80" s="2">
-        <v>200</v>
-      </c>
-      <c r="M80" s="10"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D81" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E81" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="I81" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J81" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="M81" s="10"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D82" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E82" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="I82" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J82" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="M82" s="10"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D83" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E83" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I83" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J83" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="M83" s="10"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D84" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E84" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="I84" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J84" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="M84" s="10"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D85" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E85" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="I85" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J85" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="M85" s="10"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D86" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E86" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="I86" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J86" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="M86" s="10"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D87" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E87" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="I87" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J87" s="1">
-        <v>2147483600</v>
-      </c>
-      <c r="M87" s="10"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="I88" s="1">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="M88" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="G49:J49"/>
+  <mergeCells count="9">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
